--- a/Documentacion/Documentacion de Pruebas.xlsx
+++ b/Documentacion/Documentacion de Pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\3D Objects\Nearby-B_DDI\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\3D Objects\ADMON TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2E2FF9-DDE9-4714-B57B-73494918A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D4C2E-8A8E-42E9-BF59-E991853D97D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Elaborado por: www.pmoinformatica.com</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Ninguna</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Gestión de Invitaciones y Confirmaciones</t>
   </si>
   <si>
@@ -266,6 +263,24 @@
   </si>
   <si>
     <t>Casos de Pruebas de Software</t>
+  </si>
+  <si>
+    <t>Evalúa la usabilidad de la interfaz de usuario en dispositivos smartwatch y web</t>
+  </si>
+  <si>
+    <t>Muestra la información detallada y actualizada del menú y eventos</t>
+  </si>
+  <si>
+    <t>La promoción/evento comparte correctamente en las plataformas seleccionadas</t>
+  </si>
+  <si>
+    <t>Muestran las opiniones y reseñas de manera ordenada y legible</t>
+  </si>
+  <si>
+    <t>La calificación y comentario registran correctamente en la base de datos</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -443,6 +458,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,33 +693,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -749,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -781,17 +814,17 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -804,24 +837,24 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -834,7 +867,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="30" customHeight="1">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -892,46 +925,52 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="17.25">
+    <row r="7" spans="1:26" ht="45.75">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12">
         <v>45116</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>43</v>
+      <c r="L7" s="20" t="s">
+        <v>79</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="M7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="21">
+        <v>45122</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -944,46 +983,52 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="45">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12">
         <v>45120</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>47</v>
+      <c r="E8" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
+      <c r="I8" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>43</v>
+      <c r="L8" s="20" t="s">
+        <v>80</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="21">
+        <v>45125</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -996,46 +1041,52 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="45">
       <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12">
         <v>45123</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>47</v>
+      <c r="E9" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>56</v>
+      <c r="F9" s="17" t="s">
+        <v>55</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>59</v>
+      <c r="I9" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>43</v>
+      <c r="L9" s="20" t="s">
+        <v>81</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="M9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="21">
+        <v>45129</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1048,46 +1099,52 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="45">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12">
         <v>45126</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
+      <c r="E10" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
+      <c r="F10" s="17" t="s">
+        <v>59</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>63</v>
+      <c r="I10" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>43</v>
+      <c r="L10" s="20" t="s">
+        <v>82</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="M10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="21">
+        <v>45134</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1100,46 +1157,52 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="45">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="12">
         <v>45127</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>47</v>
+      <c r="E11" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>64</v>
+      <c r="F11" s="17" t="s">
+        <v>63</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>67</v>
+      <c r="I11" s="17" t="s">
+        <v>49</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>43</v>
+      <c r="L11" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="M11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="21">
+        <v>45139</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1152,7 +1215,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="45">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1165,33 +1228,39 @@
       <c r="D12" s="12">
         <v>45128</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>43</v>
+      <c r="L12" s="20" t="s">
+        <v>68</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="M12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="21">
+        <v>45146</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1204,46 +1273,52 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="45">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12">
         <v>45133</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>68</v>
+      <c r="E13" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>44</v>
+      <c r="F13" s="17" t="s">
+        <v>43</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>43</v>
+      <c r="L13" s="20" t="s">
+        <v>71</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="M13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="21">
+        <v>45148</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1256,46 +1331,52 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="30">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="12">
         <v>45136</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>68</v>
+      <c r="E14" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>73</v>
+      <c r="F14" s="17" t="s">
+        <v>72</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>43</v>
+      <c r="L14" s="20" t="s">
+        <v>75</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="M14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="21">
+        <v>45150</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1313,17 +1394,17 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1341,17 +1422,17 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1369,17 +1450,17 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1397,17 +1478,17 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1425,17 +1506,17 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1453,17 +1534,17 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1476,7 +1557,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1504,7 +1585,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1532,7 +1613,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1560,7 +1641,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1588,7 +1669,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1616,7 +1697,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1672,7 +1753,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
